--- a/data/接口自动化测试.xlsx
+++ b/data/接口自动化测试.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\AutoTest\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4F0449-A3A1-418E-BFDB-C1E5E284B501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>行号</t>
   </si>
@@ -82,45 +76,135 @@
     <t>$.data[0].goodsSn=148631101,$.data[0].displayPrice=85.97</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Test_02</t>
+  </si>
+  <si>
+    <t>M端邮件专享价</t>
+  </si>
+  <si>
+    <t>app端邮件专享价</t>
+  </si>
+  <si>
+    <t>Test_03</t>
+  </si>
+  <si>
+    <t>m端邮件专享价</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>$.data[0].goodsSn=148631101,$.data[0].displayPrice=85.98</t>
+  </si>
+  <si>
+    <t>Test_04</t>
+  </si>
+  <si>
+    <t>CRM登录-获取ssesionId</t>
+  </si>
+  <si>
+    <t>http://test.passport.be.lvdatong.com/sso/login</t>
+  </si>
+  <si>
+    <t>Usif52iQB+z97+kf9jcK1/p3X5iNdQKy+/PHcY+vMDzGk7Za0mcWJ8u21ZMQf8WsyysWsV9787L5IjQNNrZBcWFsAzX7Qw3SdZB5IpsnX33C9Fu4PXZGZe9I6wI1WUyteSqYGS6gN8Thu2lCzIiWZuD5zcfoWXUZW3ZFnEh1PkQcN77iekbwxxmaeK+XBLnWoiW9w0/vI3+Qz1e+XDn90L4aEQHhfd4051ZSxKbRZfWf7xX25/cuy8yBJzBXIsziTrXjfRgflbedI/5dffKbHrYZbMs9l1nsyCcE7ZKo5OMDgRGv42y7nyi5onhSgEx/sTkWxwzn3twK8l/9Hs2CoA==</t>
+  </si>
+  <si>
+    <t>{"code":"0","msg":"OK","result":{"sessionId":"8B617BAB74B74F44ADF31250CA257215","isLogined":1}}</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Test_02</t>
-  </si>
-  <si>
-    <t>M端邮件专享价</t>
-  </si>
-  <si>
-    <t>app端邮件专享价</t>
-  </si>
-  <si>
-    <t>$.data[0].goodsSn=148631101,$.data[0].displayPrice=85.98</t>
-  </si>
-  <si>
-    <t>Test_03</t>
-  </si>
-  <si>
-    <t>m端邮件专享价</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>$.data[0].goodsSn=148631101,$.data[0].displayPrice=85.97</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Test_05</t>
+  </si>
+  <si>
+    <t>获取ticket</t>
+  </si>
+  <si>
+    <t>http://test.passport.be.lvdatong.com/sso/generateTicket</t>
+  </si>
+  <si>
+    <t>{"sessionId":"8B617BAB74B74F44ADF31250CA257215"}</t>
+  </si>
+  <si>
+    <t>{"code":"0","msg":"OK","result":{"ticket":"F2546BC6425C4D1E9E5791AAD57A7501","rememberMe":0}}</t>
+  </si>
+  <si>
+    <t>Test_06</t>
+  </si>
+  <si>
+    <t>CRM登录</t>
+  </si>
+  <si>
+    <t>http://test.portal.be.lvdatong.com/security/getToken</t>
+  </si>
+  <si>
+    <t>{
+"ticket":"F2546BC6425C4D1E9E5791AAD57A7501",
+"uuid":"09F6B3E6356E4881D6494F9A60C19E22"
+}</t>
+  </si>
+  <si>
+    <t>{"code":"0","msg":"OK","result":{"token":"BA3A7E80C6654E779E055FF3467572A7","rememberMe":0,"rememberMeSeconds":null,"loginExpireSeconds":null,"uuid":"09F6B3E6356E4881D6494F9A60C19E22"}}</t>
+  </si>
+  <si>
+    <t>Test_07</t>
+  </si>
+  <si>
+    <t>新增用户</t>
+  </si>
+  <si>
+    <t>http://test.admin.be.lvdatong.com/customer/addCustomer</t>
+  </si>
+  <si>
+    <t>{
+"customerId":"",
+"name":"TEST法务咨询有限公司00078",
+"shortName":"",
+"cusSource":"2",
+"cusType":"1",
+"license":"123565656550078",
+"province":3624,
+"city":3677,
+"district":3685,
+"address":"详细地址详细地址详细地址888",
+"legalPerson":"",
+"businessScope":"",
+"tradeId":"",
+"employees":"",
+"phone":"",
+"email":"",
+"fax":"",
+"remark":"",
+"customerContacts":[{"contactId":"","contactName":"Sen78","sex":"1","mobile":"13246889978","job":"","dept":"","position":"","telephone":"","qq":"","email":"","wechat":"","type":"1","contactRole":"2"}],
+"customerParticipants":[],
+"type":"0",
+"companyType":"",
+"website":"",
+"registeredCapital":"",
+"anotherPhone":"",
+"refereeMobile":"",
+"masterMobile":""
+}</t>
+  </si>
+  <si>
+    <t>{"code":"0","msg":"ok","result":null}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -129,38 +213,375 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -168,57 +589,342 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -231,9 +937,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -491,204 +1194,355 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.59765625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.86328125" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.73046875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.3984375" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.46484375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="38.73046875" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="47.59765625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.46484375" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.1328125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="5.48333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.9166666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.8666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.7166666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.2333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.9416666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="38.7333333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="47.6" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.2333333333333" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:12">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:12">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="4" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:12">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:12">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:12">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" ht="112.5" spans="1:11">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>21</v>
+      <c r="I7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>29</v>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L4">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="L7">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1 L5:L1048576">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L6">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1 L9:L1048576">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="http://10.4.4.83:8082/gb/search"/>
+    <hyperlink ref="F3" r:id="rId1" display="http://10.4.4.83:8082/gb/search"/>
+    <hyperlink ref="F4" r:id="rId1" display="http://10.4.4.83:8082/gb/search"/>
+    <hyperlink ref="F7" r:id="rId2" display="http://test.portal.be.lvdatong.com/security/getToken" tooltip="http://test.portal.be.lvdatong.com/security/getToken"/>
+    <hyperlink ref="F5" r:id="rId3" display="http://test.passport.be.lvdatong.com/sso/login"/>
+    <hyperlink ref="F6" r:id="rId4" display="http://test.passport.be.lvdatong.com/sso/generateTicket"/>
+    <hyperlink ref="F8" r:id="rId5" display="http://test.admin.be.lvdatong.com/customer/addCustomer"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>